--- a/exam.xlsx
+++ b/exam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ATHIRIVER" sheetId="1" state="visible" r:id="rId3"/>
@@ -4430,8 +4430,8 @@
   </sheetPr>
   <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O107" activeCellId="0" sqref="O107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E108" activeCellId="0" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8489,8 +8489,8 @@
   </sheetPr>
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11070,8 +11070,8 @@
   </sheetPr>
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G75" activeCellId="0" sqref="G75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
